--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1347,10 +1359,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1394,28 +1406,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1440,28 +1452,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1955,10 +1967,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2002,28 +2014,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2048,28 +2060,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2331,10 +2343,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2378,28 +2390,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2424,28 +2436,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2736,10 +2748,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2783,28 +2795,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2829,28 +2841,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3025,10 +3037,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3072,28 +3084,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3118,28 +3130,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3384,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3719,10 +3731,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3766,28 +3778,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3812,28 +3824,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4095,10 +4107,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4142,28 +4154,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4188,28 +4200,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4309,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4356,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4511,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
